--- a/para/para_data/check_list.xlsx
+++ b/para/para_data/check_list.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/edf_demo/para/para_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{500CC6CF-B433-E74F-885B-0400EEB3956B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCB682-E530-6843-A2A5-A06D22C05844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="15000" windowHeight="18900" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
+    <workbookView xWindow="1020" yWindow="840" windowWidth="15000" windowHeight="17380" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/para/para_data/check_list.xlsx
+++ b/para/para_data/check_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/edf_demo/para/para_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACCB682-E530-6843-A2A5-A06D22C05844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE0B24-5A75-C041-B466-2886326AA642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="840" windowWidth="15000" windowHeight="17380" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
+    <workbookView xWindow="1020" yWindow="760" windowWidth="15000" windowHeight="17380" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
   <si>
     <t>participant id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,54 @@
   </si>
   <si>
     <t>13223762010</t>
+  </si>
+  <si>
+    <t>刘玉鑫</t>
+  </si>
+  <si>
+    <t>18091762410</t>
+  </si>
+  <si>
+    <t>褚文月</t>
+  </si>
+  <si>
+    <t>13270757092</t>
+  </si>
+  <si>
+    <t>王菁</t>
+  </si>
+  <si>
+    <t>15339478071</t>
+  </si>
+  <si>
+    <t>郭嘉飞</t>
+  </si>
+  <si>
+    <t>18966761392</t>
+  </si>
+  <si>
+    <t>吕琰</t>
+  </si>
+  <si>
+    <t>15674990203</t>
+  </si>
+  <si>
+    <t>李佳怡</t>
+  </si>
+  <si>
+    <t>19194973591</t>
+  </si>
+  <si>
+    <t>赵昱舜</t>
+  </si>
+  <si>
+    <t>18766267961</t>
+  </si>
+  <si>
+    <t>陶涛</t>
+  </si>
+  <si>
+    <t>15286411721</t>
   </si>
 </sst>
 </file>
@@ -618,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6CBF83-0198-414D-BFD9-01F55EBA5EB5}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1080,6 +1128,118 @@
         <v>6</v>
       </c>
     </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B33">
+        <v>1032</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34">
+        <v>1033</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>1034</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B36">
+        <v>1035</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B37">
+        <v>1036</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38">
+        <v>1037</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39">
+        <v>1038</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40">
+        <v>1039</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/para/para_data/check_list.xlsx
+++ b/para/para_data/check_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/edf_demo/para/para_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8CE0B24-5A75-C041-B466-2886326AA642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8898121-CF17-F346-A543-BE72C4922478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="760" windowWidth="15000" windowHeight="17380" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
+    <workbookView xWindow="-33260" yWindow="-2160" windowWidth="19140" windowHeight="22160" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
   <si>
     <t>participant id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -295,6 +295,159 @@
   </si>
   <si>
     <t>15286411721</t>
+  </si>
+  <si>
+    <t>李儇儇</t>
+  </si>
+  <si>
+    <t>18793281662</t>
+  </si>
+  <si>
+    <t>王晨</t>
+  </si>
+  <si>
+    <t>18035540970</t>
+  </si>
+  <si>
+    <t>王子钰</t>
+  </si>
+  <si>
+    <t>18197925919</t>
+  </si>
+  <si>
+    <t>艾多</t>
+  </si>
+  <si>
+    <t>18743275255</t>
+  </si>
+  <si>
+    <t>王洋</t>
+  </si>
+  <si>
+    <t>18719828276</t>
+  </si>
+  <si>
+    <t>康文龙</t>
+  </si>
+  <si>
+    <t>15309283101</t>
+  </si>
+  <si>
+    <t>赵木桢</t>
+  </si>
+  <si>
+    <t>15098045945</t>
+  </si>
+  <si>
+    <t>孙亚鹏</t>
+  </si>
+  <si>
+    <t>19893237343</t>
+  </si>
+  <si>
+    <t>谷亚男</t>
+  </si>
+  <si>
+    <t>18406565339</t>
+  </si>
+  <si>
+    <t>韩聪聪</t>
+  </si>
+  <si>
+    <t>18336799535</t>
+  </si>
+  <si>
+    <t>王海慧</t>
+  </si>
+  <si>
+    <t>16652215695</t>
+  </si>
+  <si>
+    <t>徐佳伶</t>
+  </si>
+  <si>
+    <t>13792050829</t>
+  </si>
+  <si>
+    <t>谈妍辰</t>
+  </si>
+  <si>
+    <t>15166858965</t>
+  </si>
+  <si>
+    <t>赵思冉</t>
+  </si>
+  <si>
+    <t>15667762003</t>
+  </si>
+  <si>
+    <t>郭梦甜</t>
+  </si>
+  <si>
+    <t>18908027882</t>
+  </si>
+  <si>
+    <t>裴乐天</t>
+  </si>
+  <si>
+    <t>15034490329</t>
+  </si>
+  <si>
+    <t>杨嘉婧</t>
+  </si>
+  <si>
+    <t>15689170991</t>
+  </si>
+  <si>
+    <t>谷昕祺</t>
+  </si>
+  <si>
+    <t>15357419387</t>
+  </si>
+  <si>
+    <t>雍浩蕾</t>
+  </si>
+  <si>
+    <t>18293818396</t>
+  </si>
+  <si>
+    <t>于靖璇</t>
+  </si>
+  <si>
+    <t>15753866207</t>
+  </si>
+  <si>
+    <t>张灿灿</t>
+  </si>
+  <si>
+    <t>15290761082</t>
+  </si>
+  <si>
+    <t>张宇杭</t>
+  </si>
+  <si>
+    <t>18220577603</t>
+  </si>
+  <si>
+    <t>刘志斌</t>
+  </si>
+  <si>
+    <t>刘欣妍</t>
+  </si>
+  <si>
+    <t>16630752607</t>
+  </si>
+  <si>
+    <t>袁立群</t>
+  </si>
+  <si>
+    <t>15092410276</t>
+  </si>
+  <si>
+    <t>曾庆志</t>
+  </si>
+  <si>
+    <t>15107978967</t>
   </si>
 </sst>
 </file>
@@ -346,12 +499,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -666,16 +823,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6CBF83-0198-414D-BFD9-01F55EBA5EB5}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
@@ -904,7 +1061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -918,7 +1075,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -932,7 +1089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
         <v>40</v>
       </c>
@@ -946,7 +1103,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
@@ -960,7 +1117,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
         <v>44</v>
       </c>
@@ -974,7 +1131,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
@@ -988,7 +1145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -1002,7 +1159,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
@@ -1016,7 +1173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
         <v>52</v>
       </c>
@@ -1030,7 +1187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
@@ -1044,7 +1201,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
@@ -1058,7 +1215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
@@ -1071,8 +1228,10 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
         <v>60</v>
       </c>
@@ -1086,7 +1245,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
         <v>62</v>
       </c>
@@ -1100,7 +1259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
         <v>64</v>
       </c>
@@ -1114,7 +1273,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
@@ -1128,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
         <v>82</v>
       </c>
@@ -1142,7 +1301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
         <v>68</v>
       </c>
@@ -1156,7 +1315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
         <v>70</v>
       </c>
@@ -1170,7 +1329,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -1184,7 +1343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
         <v>74</v>
       </c>
@@ -1198,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
         <v>76</v>
       </c>
@@ -1212,7 +1371,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
         <v>78</v>
       </c>
@@ -1226,7 +1385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
         <v>80</v>
       </c>
@@ -1238,6 +1397,374 @@
       </c>
       <c r="D40" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B41">
+        <v>1040</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42">
+        <v>1041</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43">
+        <v>1042</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B44">
+        <v>1043</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45">
+        <v>1044</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" t="s">
+        <v>7</v>
+      </c>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46">
+        <v>1045</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B47">
+        <v>1046</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B48">
+        <v>1047</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49">
+        <v>1048</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50">
+        <v>1049</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B51">
+        <v>1050</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52">
+        <v>1051</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" s="4">
+        <v>2001</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54">
+        <v>2002</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B55">
+        <v>2003</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B56">
+        <v>2004</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D56" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <v>2005</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58">
+        <v>2006</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B59">
+        <v>2007</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B60">
+        <v>2008</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61">
+        <v>2009</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62">
+        <v>2010</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B63">
+        <v>2011</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64">
+        <v>2012</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65">
+        <v>2013</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66">
+        <v>2014</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D66" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/para/para_data/check_list.xlsx
+++ b/para/para_data/check_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/edf_demo/para/para_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8898121-CF17-F346-A543-BE72C4922478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D36DC9-06A1-D748-A6D4-618977940F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33260" yWindow="-2160" windowWidth="19140" windowHeight="22160" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
+    <workbookView xWindow="-41000" yWindow="-2160" windowWidth="26880" windowHeight="24320" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="197">
   <si>
     <t>participant id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -448,6 +448,192 @@
   </si>
   <si>
     <t>15107978967</t>
+  </si>
+  <si>
+    <t>李俊</t>
+  </si>
+  <si>
+    <t>18829592303</t>
+  </si>
+  <si>
+    <t>罗贵逸</t>
+  </si>
+  <si>
+    <t>18278512610</t>
+  </si>
+  <si>
+    <t>卢元佳</t>
+  </si>
+  <si>
+    <t>13347436361</t>
+  </si>
+  <si>
+    <t>刘钊佑</t>
+  </si>
+  <si>
+    <t>13463030616</t>
+  </si>
+  <si>
+    <t>张瀚文</t>
+  </si>
+  <si>
+    <t>13205351022</t>
+  </si>
+  <si>
+    <t>张潇</t>
+  </si>
+  <si>
+    <t>17861409328</t>
+  </si>
+  <si>
+    <t>刘杏如</t>
+  </si>
+  <si>
+    <t>17610416968</t>
+  </si>
+  <si>
+    <t>孙正涛</t>
+  </si>
+  <si>
+    <t>15299170939</t>
+  </si>
+  <si>
+    <t>杨瑞州</t>
+  </si>
+  <si>
+    <t>13849792658</t>
+  </si>
+  <si>
+    <t>陆紫娴</t>
+  </si>
+  <si>
+    <t>19117535357</t>
+  </si>
+  <si>
+    <t>杨东</t>
+  </si>
+  <si>
+    <t>18792546734</t>
+  </si>
+  <si>
+    <t>黄鹏</t>
+  </si>
+  <si>
+    <t>18289818762</t>
+  </si>
+  <si>
+    <t>赵雨桐</t>
+  </si>
+  <si>
+    <t>17343134674</t>
+  </si>
+  <si>
+    <t>赵志浩</t>
+  </si>
+  <si>
+    <t>18165372471</t>
+  </si>
+  <si>
+    <t>唐子茹</t>
+  </si>
+  <si>
+    <t>18199259664</t>
+  </si>
+  <si>
+    <t>张云姣</t>
+  </si>
+  <si>
+    <t>13753982095</t>
+  </si>
+  <si>
+    <t>张华楠</t>
+  </si>
+  <si>
+    <t>18235713566</t>
+  </si>
+  <si>
+    <t>冯佳明</t>
+  </si>
+  <si>
+    <t>19522515563</t>
+  </si>
+  <si>
+    <t>党玉婷</t>
+  </si>
+  <si>
+    <t>13759637872</t>
+  </si>
+  <si>
+    <t>张钦翔</t>
+  </si>
+  <si>
+    <t>17382653719</t>
+  </si>
+  <si>
+    <t>李子豪</t>
+  </si>
+  <si>
+    <t>15020307814</t>
+  </si>
+  <si>
+    <t>王雯</t>
+  </si>
+  <si>
+    <t>15389553076</t>
+  </si>
+  <si>
+    <t>吕金儒</t>
+  </si>
+  <si>
+    <t>18766655238</t>
+  </si>
+  <si>
+    <t>郭懿宣</t>
+  </si>
+  <si>
+    <t>18089254352</t>
+  </si>
+  <si>
+    <t>戴梓怡</t>
+  </si>
+  <si>
+    <t>15603349558</t>
+  </si>
+  <si>
+    <t>陈茜玥</t>
+  </si>
+  <si>
+    <t>13177947176</t>
+  </si>
+  <si>
+    <t>姜瀚雨</t>
+  </si>
+  <si>
+    <t>18732059240</t>
+  </si>
+  <si>
+    <t>史倩宇</t>
+  </si>
+  <si>
+    <t>15003238069</t>
+  </si>
+  <si>
+    <t>解进祎</t>
+  </si>
+  <si>
+    <t>18131067409</t>
+  </si>
+  <si>
+    <t>张兰欣</t>
+  </si>
+  <si>
+    <t>13669285508</t>
+  </si>
+  <si>
+    <t>潘坤清</t>
+  </si>
+  <si>
+    <t>18078521805</t>
   </si>
 </sst>
 </file>
@@ -823,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6CBF83-0198-414D-BFD9-01F55EBA5EB5}">
-  <dimension ref="A1:H66"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1767,6 +1953,442 @@
         <v>5</v>
       </c>
     </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B67">
+        <v>3001</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B68">
+        <v>3002</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69">
+        <v>3003</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B70">
+        <v>3004</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71">
+        <v>3005</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B72">
+        <v>3006</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B73">
+        <v>3007</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74">
+        <v>3008</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75">
+        <v>3009</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76">
+        <v>3010</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77">
+        <v>3011</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D77" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B78">
+        <v>3012</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B79">
+        <v>3013</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D79" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B80">
+        <v>3014</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81">
+        <v>3015</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D81" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82">
+        <v>3016</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B83">
+        <v>3017</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D83" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B84">
+        <v>3018</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B85">
+        <v>3019</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D85" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B86">
+        <v>3020</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87">
+        <v>3021</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B88">
+        <v>3022</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B89">
+        <v>3023</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B90">
+        <v>3024</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B91">
+        <v>3025</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D91" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B92">
+        <v>3026</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B93">
+        <v>3027</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D93" t="s">
+        <v>5</v>
+      </c>
+      <c r="E93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B94">
+        <v>3028</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B95">
+        <v>3029</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96">
+        <v>3030</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B97">
+        <v>3031</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D97" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/para/para_data/check_list.xlsx
+++ b/para/para_data/check_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/edf_demo/para/para_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D36DC9-06A1-D748-A6D4-618977940F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6C3DB-B7FE-7B43-9264-FC840380DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-41000" yWindow="-2160" windowWidth="26880" windowHeight="24320" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
+    <workbookView xWindow="-36680" yWindow="-980" windowWidth="18480" windowHeight="24320" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="278">
   <si>
     <t>participant id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -426,221 +426,465 @@
     <t>张宇杭</t>
   </si>
   <si>
-    <t>18220577603</t>
+    <t>刘欣妍</t>
+  </si>
+  <si>
+    <t>16630752607</t>
+  </si>
+  <si>
+    <t>袁立群</t>
+  </si>
+  <si>
+    <t>15092410276</t>
+  </si>
+  <si>
+    <t>曾庆志</t>
+  </si>
+  <si>
+    <t>15107978967</t>
+  </si>
+  <si>
+    <t>李俊</t>
+  </si>
+  <si>
+    <t>18829592303</t>
+  </si>
+  <si>
+    <t>罗贵逸</t>
+  </si>
+  <si>
+    <t>18278512610</t>
+  </si>
+  <si>
+    <t>卢元佳</t>
+  </si>
+  <si>
+    <t>13347436361</t>
+  </si>
+  <si>
+    <t>刘钊佑</t>
+  </si>
+  <si>
+    <t>13463030616</t>
+  </si>
+  <si>
+    <t>张瀚文</t>
+  </si>
+  <si>
+    <t>13205351022</t>
+  </si>
+  <si>
+    <t>张潇</t>
+  </si>
+  <si>
+    <t>17861409328</t>
+  </si>
+  <si>
+    <t>刘杏如</t>
+  </si>
+  <si>
+    <t>17610416968</t>
+  </si>
+  <si>
+    <t>孙正涛</t>
+  </si>
+  <si>
+    <t>15299170939</t>
+  </si>
+  <si>
+    <t>杨瑞州</t>
+  </si>
+  <si>
+    <t>13849792658</t>
+  </si>
+  <si>
+    <t>陆紫娴</t>
+  </si>
+  <si>
+    <t>19117535357</t>
+  </si>
+  <si>
+    <t>杨东</t>
+  </si>
+  <si>
+    <t>18792546734</t>
+  </si>
+  <si>
+    <t>黄鹏</t>
+  </si>
+  <si>
+    <t>18289818762</t>
+  </si>
+  <si>
+    <t>赵雨桐</t>
+  </si>
+  <si>
+    <t>17343134674</t>
+  </si>
+  <si>
+    <t>赵志浩</t>
+  </si>
+  <si>
+    <t>18165372471</t>
+  </si>
+  <si>
+    <t>唐子茹</t>
+  </si>
+  <si>
+    <t>18199259664</t>
+  </si>
+  <si>
+    <t>张云姣</t>
+  </si>
+  <si>
+    <t>13753982095</t>
+  </si>
+  <si>
+    <t>张华楠</t>
+  </si>
+  <si>
+    <t>18235713566</t>
+  </si>
+  <si>
+    <t>冯佳明</t>
+  </si>
+  <si>
+    <t>19522515563</t>
+  </si>
+  <si>
+    <t>党玉婷</t>
+  </si>
+  <si>
+    <t>13759637872</t>
+  </si>
+  <si>
+    <t>张钦翔</t>
+  </si>
+  <si>
+    <t>17382653719</t>
+  </si>
+  <si>
+    <t>李子豪</t>
+  </si>
+  <si>
+    <t>15020307814</t>
+  </si>
+  <si>
+    <t>王雯</t>
+  </si>
+  <si>
+    <t>15389553076</t>
+  </si>
+  <si>
+    <t>吕金儒</t>
+  </si>
+  <si>
+    <t>18766655238</t>
+  </si>
+  <si>
+    <t>郭懿宣</t>
+  </si>
+  <si>
+    <t>18089254352</t>
+  </si>
+  <si>
+    <t>戴梓怡</t>
+  </si>
+  <si>
+    <t>15603349558</t>
+  </si>
+  <si>
+    <t>陈茜玥</t>
+  </si>
+  <si>
+    <t>13177947176</t>
+  </si>
+  <si>
+    <t>姜瀚雨</t>
+  </si>
+  <si>
+    <t>18732059240</t>
+  </si>
+  <si>
+    <t>史倩宇</t>
+  </si>
+  <si>
+    <t>15003238069</t>
+  </si>
+  <si>
+    <t>解进祎</t>
+  </si>
+  <si>
+    <t>18131067409</t>
+  </si>
+  <si>
+    <t>张兰欣</t>
+  </si>
+  <si>
+    <t>13669285508</t>
+  </si>
+  <si>
+    <t>潘坤清</t>
+  </si>
+  <si>
+    <t>18078521805</t>
+  </si>
+  <si>
+    <t>吴佩雯</t>
+  </si>
+  <si>
+    <t>13997861380</t>
+  </si>
+  <si>
+    <t>仇瑞</t>
+  </si>
+  <si>
+    <t>18729020977</t>
+  </si>
+  <si>
+    <t>王钰婷</t>
+  </si>
+  <si>
+    <t>18011431598</t>
+  </si>
+  <si>
+    <t>屠腾</t>
+  </si>
+  <si>
+    <t>15368360602</t>
+  </si>
+  <si>
+    <t>董送棋</t>
+  </si>
+  <si>
+    <t>19973253359</t>
+  </si>
+  <si>
+    <t>陈育东</t>
+  </si>
+  <si>
+    <t>15160520803</t>
+  </si>
+  <si>
+    <t>刘明英</t>
+  </si>
+  <si>
+    <t>17345315501</t>
+  </si>
+  <si>
+    <t>李涵</t>
+  </si>
+  <si>
+    <t>18807993048</t>
+  </si>
+  <si>
+    <t>秦亚茹</t>
+  </si>
+  <si>
+    <t>15825842648</t>
+  </si>
+  <si>
+    <t>林艺婷</t>
+  </si>
+  <si>
+    <t>17765808680</t>
+  </si>
+  <si>
+    <t>王佳宇</t>
+  </si>
+  <si>
+    <t>15146890483</t>
+  </si>
+  <si>
+    <t>林奕廷</t>
+  </si>
+  <si>
+    <t>18179620865</t>
+  </si>
+  <si>
+    <t>杨雯皓</t>
+  </si>
+  <si>
+    <t>18246103359</t>
+  </si>
+  <si>
+    <t>孙琪然</t>
+  </si>
+  <si>
+    <t>15100220985</t>
+  </si>
+  <si>
+    <t>李林峰</t>
+  </si>
+  <si>
+    <t>13604676395</t>
+  </si>
+  <si>
+    <t>李明正</t>
+  </si>
+  <si>
+    <t>15670572677</t>
+  </si>
+  <si>
+    <t>曲帅</t>
+  </si>
+  <si>
+    <t>15168830526</t>
+  </si>
+  <si>
+    <t>吴家旺</t>
+  </si>
+  <si>
+    <t>18269769675</t>
+  </si>
+  <si>
+    <t>徐艺铭</t>
+  </si>
+  <si>
+    <t>18603985329</t>
+  </si>
+  <si>
+    <t>余丽君</t>
+  </si>
+  <si>
+    <t>13109379078</t>
+  </si>
+  <si>
+    <t>邹桂连</t>
+  </si>
+  <si>
+    <t>15891712218</t>
+  </si>
+  <si>
+    <t>辛蕾</t>
+  </si>
+  <si>
+    <t>15891397571</t>
+  </si>
+  <si>
+    <t>田振铎</t>
+  </si>
+  <si>
+    <t>18871014686</t>
+  </si>
+  <si>
+    <t>杜金乐</t>
+  </si>
+  <si>
+    <t>15010441641</t>
+  </si>
+  <si>
+    <t>吴桐</t>
+  </si>
+  <si>
+    <t>18697719950</t>
+  </si>
+  <si>
+    <t>秦雯慧</t>
+  </si>
+  <si>
+    <t>18337191281</t>
+  </si>
+  <si>
+    <t>王彬</t>
+  </si>
+  <si>
+    <t>13700275653</t>
+  </si>
+  <si>
+    <t>张馨戈</t>
+  </si>
+  <si>
+    <t>15043827818</t>
+  </si>
+  <si>
+    <t>黄玮</t>
+  </si>
+  <si>
+    <t>19829661936</t>
+  </si>
+  <si>
+    <t>吴慧雅</t>
+  </si>
+  <si>
+    <t>15367886835</t>
+  </si>
+  <si>
+    <t>黄舟耀</t>
+  </si>
+  <si>
+    <t>15928454227</t>
+  </si>
+  <si>
+    <t>刘小蝶</t>
+  </si>
+  <si>
+    <t>18781075244</t>
+  </si>
+  <si>
+    <t>刘士心</t>
+  </si>
+  <si>
+    <t>17331531001</t>
+  </si>
+  <si>
+    <t>张伯宇</t>
+  </si>
+  <si>
+    <t>18844550008</t>
+  </si>
+  <si>
+    <t>倪健菲</t>
+  </si>
+  <si>
+    <t>13009959551</t>
+  </si>
+  <si>
+    <t>杨文波</t>
+  </si>
+  <si>
+    <t>15991064874</t>
+  </si>
+  <si>
+    <t>朱彦冰</t>
+  </si>
+  <si>
+    <t>18809438995</t>
+  </si>
+  <si>
+    <t>刘向雨</t>
+  </si>
+  <si>
+    <t>15533309269</t>
+  </si>
+  <si>
+    <t>陈灏涵</t>
+  </si>
+  <si>
+    <t>18209292648</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
   <si>
     <t>刘志斌</t>
-  </si>
-  <si>
-    <t>刘欣妍</t>
-  </si>
-  <si>
-    <t>16630752607</t>
-  </si>
-  <si>
-    <t>袁立群</t>
-  </si>
-  <si>
-    <t>15092410276</t>
-  </si>
-  <si>
-    <t>曾庆志</t>
-  </si>
-  <si>
-    <t>15107978967</t>
-  </si>
-  <si>
-    <t>李俊</t>
-  </si>
-  <si>
-    <t>18829592303</t>
-  </si>
-  <si>
-    <t>罗贵逸</t>
-  </si>
-  <si>
-    <t>18278512610</t>
-  </si>
-  <si>
-    <t>卢元佳</t>
-  </si>
-  <si>
-    <t>13347436361</t>
-  </si>
-  <si>
-    <t>刘钊佑</t>
-  </si>
-  <si>
-    <t>13463030616</t>
-  </si>
-  <si>
-    <t>张瀚文</t>
-  </si>
-  <si>
-    <t>13205351022</t>
-  </si>
-  <si>
-    <t>张潇</t>
-  </si>
-  <si>
-    <t>17861409328</t>
-  </si>
-  <si>
-    <t>刘杏如</t>
-  </si>
-  <si>
-    <t>17610416968</t>
-  </si>
-  <si>
-    <t>孙正涛</t>
-  </si>
-  <si>
-    <t>15299170939</t>
-  </si>
-  <si>
-    <t>杨瑞州</t>
-  </si>
-  <si>
-    <t>13849792658</t>
-  </si>
-  <si>
-    <t>陆紫娴</t>
-  </si>
-  <si>
-    <t>19117535357</t>
-  </si>
-  <si>
-    <t>杨东</t>
-  </si>
-  <si>
-    <t>18792546734</t>
-  </si>
-  <si>
-    <t>黄鹏</t>
-  </si>
-  <si>
-    <t>18289818762</t>
-  </si>
-  <si>
-    <t>赵雨桐</t>
-  </si>
-  <si>
-    <t>17343134674</t>
-  </si>
-  <si>
-    <t>赵志浩</t>
-  </si>
-  <si>
-    <t>18165372471</t>
-  </si>
-  <si>
-    <t>唐子茹</t>
-  </si>
-  <si>
-    <t>18199259664</t>
-  </si>
-  <si>
-    <t>张云姣</t>
-  </si>
-  <si>
-    <t>13753982095</t>
-  </si>
-  <si>
-    <t>张华楠</t>
-  </si>
-  <si>
-    <t>18235713566</t>
-  </si>
-  <si>
-    <t>冯佳明</t>
-  </si>
-  <si>
-    <t>19522515563</t>
-  </si>
-  <si>
-    <t>党玉婷</t>
-  </si>
-  <si>
-    <t>13759637872</t>
-  </si>
-  <si>
-    <t>张钦翔</t>
-  </si>
-  <si>
-    <t>17382653719</t>
-  </si>
-  <si>
-    <t>李子豪</t>
-  </si>
-  <si>
-    <t>15020307814</t>
-  </si>
-  <si>
-    <t>王雯</t>
-  </si>
-  <si>
-    <t>15389553076</t>
-  </si>
-  <si>
-    <t>吕金儒</t>
-  </si>
-  <si>
-    <t>18766655238</t>
-  </si>
-  <si>
-    <t>郭懿宣</t>
-  </si>
-  <si>
-    <t>18089254352</t>
-  </si>
-  <si>
-    <t>戴梓怡</t>
-  </si>
-  <si>
-    <t>15603349558</t>
-  </si>
-  <si>
-    <t>陈茜玥</t>
-  </si>
-  <si>
-    <t>13177947176</t>
-  </si>
-  <si>
-    <t>姜瀚雨</t>
-  </si>
-  <si>
-    <t>18732059240</t>
-  </si>
-  <si>
-    <t>史倩宇</t>
-  </si>
-  <si>
-    <t>15003238069</t>
-  </si>
-  <si>
-    <t>解进祎</t>
-  </si>
-  <si>
-    <t>18131067409</t>
-  </si>
-  <si>
-    <t>张兰欣</t>
-  </si>
-  <si>
-    <t>13669285508</t>
-  </si>
-  <si>
-    <t>潘坤清</t>
-  </si>
-  <si>
-    <t>18078521805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -653,6 +897,14 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -685,7 +937,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -693,6 +945,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1009,15 +1264,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D6CBF83-0198-414D-BFD9-01F55EBA5EB5}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="8.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.6640625" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -1731,13 +1986,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="B51">
         <v>1050</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>127</v>
+      <c r="C51" s="2">
+        <v>18220577603</v>
       </c>
       <c r="D51" t="s">
         <v>5</v>
@@ -1745,13 +2000,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B52">
         <v>1051</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D52" t="s">
         <v>6</v>
@@ -1899,13 +2154,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B63">
         <v>2011</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D63" t="s">
         <v>6</v>
@@ -1913,13 +2168,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B64">
         <v>2012</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D64" t="s">
         <v>7</v>
@@ -1946,8 +2201,8 @@
       <c r="B66">
         <v>2014</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>127</v>
+      <c r="C66" s="2">
+        <v>18220577603</v>
       </c>
       <c r="D66" t="s">
         <v>5</v>
@@ -1955,437 +2210,983 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B67">
         <v>3001</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="D67" t="s">
-        <v>4</v>
+        <v>134</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B68">
         <v>3002</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" t="s">
-        <v>5</v>
+        <v>136</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B69">
         <v>3003</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="D69" t="s">
-        <v>6</v>
+        <v>138</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B70">
         <v>3004</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D70" t="s">
-        <v>7</v>
+        <v>140</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B71">
         <v>3005</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D71" t="s">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B72">
         <v>3006</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
+        <v>152</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B73">
         <v>3007</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D73" t="s">
-        <v>6</v>
+        <v>154</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B74">
         <v>3008</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D74" t="s">
-        <v>4</v>
+        <v>142</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B75">
         <v>3009</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D75" t="s">
-        <v>5</v>
+        <v>144</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B76">
         <v>3010</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D76" t="s">
-        <v>6</v>
+        <v>146</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B77">
         <v>3011</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D77" t="s">
-        <v>7</v>
+        <v>148</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B78">
         <v>3012</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4</v>
+        <v>156</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B79">
         <v>3013</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D79" t="s">
-        <v>5</v>
+        <v>158</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80">
         <v>3014</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D80" t="s">
-        <v>6</v>
+        <v>160</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B81">
         <v>3015</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D81" t="s">
-        <v>7</v>
+        <v>162</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B82">
         <v>3016</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
+        <v>164</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B83">
         <v>3017</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D83" t="s">
-        <v>5</v>
+        <v>166</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B84">
         <v>3018</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D84" t="s">
-        <v>6</v>
+        <v>168</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B85">
         <v>3019</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="D85" t="s">
-        <v>7</v>
+        <v>170</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B86">
         <v>3020</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D86" t="s">
-        <v>4</v>
+        <v>172</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B87">
         <v>3021</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D87" t="s">
-        <v>5</v>
+        <v>174</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B88">
         <v>3022</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D88" t="s">
-        <v>4</v>
+        <v>176</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B89">
         <v>3023</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D89" t="s">
-        <v>5</v>
+        <v>178</v>
+      </c>
+      <c r="D89" s="5" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B90">
         <v>3024</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D90" t="s">
-        <v>6</v>
+        <v>180</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B91">
         <v>3025</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D91" t="s">
-        <v>7</v>
+        <v>182</v>
+      </c>
+      <c r="D91" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B92">
         <v>3026</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" t="s">
-        <v>4</v>
+        <v>184</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B93">
         <v>3027</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D93" t="s">
-        <v>5</v>
+        <v>186</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="E93" s="1"/>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B94">
         <v>3028</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D94" t="s">
-        <v>6</v>
+        <v>192</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B95">
         <v>3029</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D95" t="s">
-        <v>4</v>
+        <v>188</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B96">
         <v>3030</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D96" t="s">
-        <v>5</v>
+        <v>190</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B97">
         <v>3031</v>
       </c>
       <c r="C97" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B98">
+        <v>4001</v>
+      </c>
+      <c r="C98" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B99">
+        <v>4002</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B100">
+        <v>4003</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101">
+        <v>4004</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B102">
+        <v>4005</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B103">
+        <v>4006</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D103" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B104">
+        <v>4007</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B105">
+        <v>4008</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B106">
+        <v>4009</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="D106" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B107">
+        <v>4010</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D107" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108">
+        <v>4011</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109">
+        <v>4012</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B110">
+        <v>4013</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D110" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B111">
+        <v>4014</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B112">
+        <v>4015</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B113">
+        <v>4016</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D113" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B114">
+        <v>4017</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D114" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B115">
+        <v>4018</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D115" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B116">
+        <v>4019</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B117">
+        <v>4020</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="D117" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B118">
+        <v>4021</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D118" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B119">
+        <v>4022</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="D119" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B120">
+        <v>4023</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B121">
+        <v>4024</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B122">
+        <v>4025</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D122" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B123">
+        <v>4026</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B124">
+        <v>4027</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B125">
+        <v>4028</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="D125" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B126">
+        <v>4029</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D126" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B127">
+        <v>4030</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B128">
+        <v>4031</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B129">
+        <v>4032</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D129" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B130">
+        <v>4033</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D130" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B131">
+        <v>4034</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="D131" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B132">
+        <v>4035</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B133">
+        <v>4036</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="D133" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B134">
+        <v>4037</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D134" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B135">
+        <v>4038</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="D135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B136">
+        <v>4039</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D136" t="s">
         <v>6</v>
       </c>
     </row>

--- a/para/para_data/check_list.xlsx
+++ b/para/para_data/check_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/placenameday/R study/edf_demo/para/para_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBE6C3DB-B7FE-7B43-9264-FC840380DAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AD49F29-38DC-E648-AE46-C2354509EA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36680" yWindow="-980" windowWidth="18480" windowHeight="24320" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
+    <workbookView xWindow="-27880" yWindow="-740" windowWidth="18480" windowHeight="24320" xr2:uid="{45DC7107-85C6-7442-A632-10635BCD693F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="279">
   <si>
     <t>participant id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -877,6 +877,10 @@
   </si>
   <si>
     <t>刘志斌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1267,7 +1271,7 @@
   <dimension ref="A1:H136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1278,7 +1282,7 @@
     <col min="7" max="7" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1291,8 +1295,11 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1305,8 +1312,11 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1319,8 +1329,11 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1333,8 +1346,11 @@
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1347,8 +1363,11 @@
       <c r="D5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -1361,8 +1380,11 @@
       <c r="D6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -1375,8 +1397,11 @@
       <c r="D7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
         <v>60</v>
       </c>
@@ -1389,8 +1414,11 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -1403,8 +1431,11 @@
       <c r="D9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1417,8 +1448,11 @@
       <c r="D10" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -1431,8 +1465,11 @@
       <c r="D11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1445,8 +1482,11 @@
       <c r="D12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1459,8 +1499,11 @@
       <c r="D13" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1473,8 +1516,11 @@
       <c r="D14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1487,8 +1533,11 @@
       <c r="D15" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1500,6 +1549,9 @@
       </c>
       <c r="D16" t="s">
         <v>6</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1515,6 +1567,9 @@
       <c r="D17" t="s">
         <v>7</v>
       </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
@@ -1529,6 +1584,9 @@
       <c r="D18" t="s">
         <v>4</v>
       </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
@@ -1543,6 +1601,9 @@
       <c r="D19" t="s">
         <v>5</v>
       </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
@@ -1557,6 +1618,9 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
@@ -1571,6 +1635,9 @@
       <c r="D21" t="s">
         <v>7</v>
       </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
@@ -1585,6 +1652,9 @@
       <c r="D22" t="s">
         <v>4</v>
       </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
@@ -1599,6 +1669,9 @@
       <c r="D23" t="s">
         <v>5</v>
       </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
@@ -1613,6 +1686,9 @@
       <c r="D24" t="s">
         <v>6</v>
       </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
@@ -1627,6 +1703,9 @@
       <c r="D25" t="s">
         <v>7</v>
       </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
@@ -1641,6 +1720,9 @@
       <c r="D26" t="s">
         <v>4</v>
       </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
@@ -1655,6 +1737,9 @@
       <c r="D27" t="s">
         <v>5</v>
       </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
@@ -1669,6 +1754,9 @@
       <c r="D28" t="s">
         <v>6</v>
       </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
@@ -1685,6 +1773,9 @@
       <c r="D29" t="s">
         <v>7</v>
       </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
@@ -1699,6 +1790,9 @@
       <c r="D30" t="s">
         <v>4</v>
       </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
@@ -1713,6 +1807,9 @@
       <c r="D31" t="s">
         <v>5</v>
       </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
@@ -1727,6 +1824,9 @@
       <c r="D32" t="s">
         <v>6</v>
       </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
@@ -1741,6 +1841,9 @@
       <c r="D33" t="s">
         <v>7</v>
       </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
@@ -1755,6 +1858,9 @@
       <c r="D34" t="s">
         <v>4</v>
       </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
@@ -1769,6 +1875,9 @@
       <c r="D35" t="s">
         <v>5</v>
       </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
@@ -1783,6 +1892,9 @@
       <c r="D36" t="s">
         <v>6</v>
       </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
@@ -1797,6 +1909,9 @@
       <c r="D37" t="s">
         <v>7</v>
       </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
@@ -1811,6 +1926,9 @@
       <c r="D38" t="s">
         <v>4</v>
       </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
@@ -1825,6 +1943,9 @@
       <c r="D39" t="s">
         <v>5</v>
       </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
@@ -1839,6 +1960,9 @@
       <c r="D40" t="s">
         <v>6</v>
       </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
@@ -1853,6 +1977,9 @@
       <c r="D41" t="s">
         <v>7</v>
       </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
@@ -1867,6 +1994,9 @@
       <c r="D42" t="s">
         <v>4</v>
       </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
@@ -1881,6 +2011,9 @@
       <c r="D43" t="s">
         <v>5</v>
       </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
@@ -1895,6 +2028,9 @@
       <c r="D44" t="s">
         <v>6</v>
       </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
     </row>
@@ -1911,6 +2047,9 @@
       <c r="D45" t="s">
         <v>7</v>
       </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
     </row>
@@ -1927,6 +2066,9 @@
       <c r="D46" t="s">
         <v>4</v>
       </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
@@ -1941,6 +2083,9 @@
       <c r="D47" t="s">
         <v>5</v>
       </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
@@ -1955,8 +2100,11 @@
       <c r="D48" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" s="1" t="s">
         <v>120</v>
       </c>
@@ -1969,8 +2117,11 @@
       <c r="D49" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" s="1" t="s">
         <v>122</v>
       </c>
@@ -1983,8 +2134,11 @@
       <c r="D50" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" s="1" t="s">
         <v>277</v>
       </c>
@@ -1997,8 +2151,11 @@
       <c r="D51" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" s="1" t="s">
         <v>127</v>
       </c>
@@ -2011,8 +2168,11 @@
       <c r="D52" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
         <v>98</v>
       </c>
@@ -2025,8 +2185,11 @@
       <c r="D53" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
         <v>102</v>
       </c>
@@ -2039,8 +2202,11 @@
       <c r="D54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" s="1" t="s">
         <v>100</v>
       </c>
@@ -2053,8 +2219,11 @@
       <c r="D55" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" s="1" t="s">
         <v>86</v>
       </c>
@@ -2067,8 +2236,11 @@
       <c r="D56" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" s="1" t="s">
         <v>90</v>
       </c>
@@ -2081,8 +2253,11 @@
       <c r="D57" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" s="1" t="s">
         <v>92</v>
       </c>
@@ -2095,8 +2270,11 @@
       <c r="D58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" s="1" t="s">
         <v>108</v>
       </c>
@@ -2109,8 +2287,11 @@
       <c r="D59" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" s="1" t="s">
         <v>110</v>
       </c>
@@ -2123,8 +2304,11 @@
       <c r="D60" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" s="1" t="s">
         <v>114</v>
       </c>
@@ -2137,8 +2321,11 @@
       <c r="D61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" s="1" t="s">
         <v>116</v>
       </c>
@@ -2151,8 +2338,11 @@
       <c r="D62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -2165,8 +2355,11 @@
       <c r="D63" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" s="1" t="s">
         <v>131</v>
       </c>
@@ -2179,8 +2372,11 @@
       <c r="D64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65" s="1" t="s">
         <v>124</v>
       </c>
@@ -2193,8 +2389,11 @@
       <c r="D65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66" s="1" t="s">
         <v>126</v>
       </c>
@@ -2207,8 +2406,11 @@
       <c r="D66" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" s="1" t="s">
         <v>133</v>
       </c>
@@ -2221,8 +2423,11 @@
       <c r="D67" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68" s="1" t="s">
         <v>135</v>
       </c>
@@ -2235,8 +2440,11 @@
       <c r="D68" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="1" t="s">
         <v>137</v>
       </c>
@@ -2249,8 +2457,11 @@
       <c r="D69" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70" s="1" t="s">
         <v>139</v>
       </c>
@@ -2263,8 +2474,11 @@
       <c r="D70" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
         <v>149</v>
       </c>
@@ -2277,8 +2491,11 @@
       <c r="D71" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" s="1" t="s">
         <v>151</v>
       </c>
@@ -2291,8 +2508,11 @@
       <c r="D72" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73" s="1" t="s">
         <v>153</v>
       </c>
@@ -2305,8 +2525,11 @@
       <c r="D73" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74" s="1" t="s">
         <v>141</v>
       </c>
@@ -2319,8 +2542,11 @@
       <c r="D74" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75" s="1" t="s">
         <v>143</v>
       </c>
@@ -2333,8 +2559,11 @@
       <c r="D75" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76" s="1" t="s">
         <v>145</v>
       </c>
@@ -2347,8 +2576,11 @@
       <c r="D76" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77" s="1" t="s">
         <v>147</v>
       </c>
@@ -2361,8 +2593,11 @@
       <c r="D77" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78" s="1" t="s">
         <v>155</v>
       </c>
@@ -2375,8 +2610,11 @@
       <c r="D78" s="5" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79" s="1" t="s">
         <v>157</v>
       </c>
@@ -2389,8 +2627,11 @@
       <c r="D79" s="5" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80" s="1" t="s">
         <v>159</v>
       </c>
@@ -2402,6 +2643,9 @@
       </c>
       <c r="D80" s="5" t="s">
         <v>275</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -2417,6 +2661,9 @@
       <c r="D81" s="5" t="s">
         <v>276</v>
       </c>
+      <c r="E81">
+        <v>4</v>
+      </c>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
@@ -2431,6 +2678,9 @@
       <c r="D82" s="5" t="s">
         <v>273</v>
       </c>
+      <c r="E82">
+        <v>4</v>
+      </c>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
@@ -2445,6 +2695,9 @@
       <c r="D83" s="5" t="s">
         <v>274</v>
       </c>
+      <c r="E83">
+        <v>4</v>
+      </c>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
@@ -2459,6 +2712,9 @@
       <c r="D84" s="5" t="s">
         <v>275</v>
       </c>
+      <c r="E84">
+        <v>4</v>
+      </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
@@ -2473,6 +2729,9 @@
       <c r="D85" s="5" t="s">
         <v>276</v>
       </c>
+      <c r="E85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
@@ -2487,6 +2746,9 @@
       <c r="D86" s="5" t="s">
         <v>273</v>
       </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
@@ -2501,6 +2763,9 @@
       <c r="D87" s="5" t="s">
         <v>274</v>
       </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
@@ -2515,6 +2780,9 @@
       <c r="D88" s="5" t="s">
         <v>275</v>
       </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
@@ -2529,6 +2797,9 @@
       <c r="D89" s="5" t="s">
         <v>276</v>
       </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
     </row>
     <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
@@ -2543,6 +2814,9 @@
       <c r="D90" s="5" t="s">
         <v>273</v>
       </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
@@ -2557,6 +2831,9 @@
       <c r="D91" s="5" t="s">
         <v>274</v>
       </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
@@ -2571,6 +2848,9 @@
       <c r="D92" s="5" t="s">
         <v>275</v>
       </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
@@ -2585,7 +2865,9 @@
       <c r="D93" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E93" s="1"/>
+      <c r="E93">
+        <v>4</v>
+      </c>
       <c r="G93" s="1"/>
     </row>
     <row r="94" spans="1:7">
@@ -2601,6 +2883,9 @@
       <c r="D94" s="5" t="s">
         <v>273</v>
       </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
     </row>
     <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
@@ -2615,6 +2900,9 @@
       <c r="D95" s="5" t="s">
         <v>274</v>
       </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
     </row>
     <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
@@ -2629,8 +2917,11 @@
       <c r="D96" s="5" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97" s="1" t="s">
         <v>193</v>
       </c>
@@ -2643,8 +2934,11 @@
       <c r="D97" s="5" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98" s="1" t="s">
         <v>195</v>
       </c>
@@ -2657,8 +2951,11 @@
       <c r="D98" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99" s="1" t="s">
         <v>197</v>
       </c>
@@ -2671,8 +2968,11 @@
       <c r="D99" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100" s="1" t="s">
         <v>199</v>
       </c>
@@ -2685,8 +2985,11 @@
       <c r="D100" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101" s="1" t="s">
         <v>201</v>
       </c>
@@ -2699,8 +3002,11 @@
       <c r="D101" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102" s="1" t="s">
         <v>203</v>
       </c>
@@ -2713,8 +3019,11 @@
       <c r="D102" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103" s="1" t="s">
         <v>213</v>
       </c>
@@ -2727,8 +3036,11 @@
       <c r="D103" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104" s="1" t="s">
         <v>215</v>
       </c>
@@ -2741,8 +3053,11 @@
       <c r="D104" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105" s="1" t="s">
         <v>217</v>
       </c>
@@ -2755,8 +3070,11 @@
       <c r="D105" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106" s="1" t="s">
         <v>219</v>
       </c>
@@ -2769,8 +3087,11 @@
       <c r="D106" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107" s="1" t="s">
         <v>205</v>
       </c>
@@ -2783,8 +3104,11 @@
       <c r="D107" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108" s="1" t="s">
         <v>207</v>
       </c>
@@ -2797,8 +3121,11 @@
       <c r="D108" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109" s="1" t="s">
         <v>209</v>
       </c>
@@ -2811,8 +3138,11 @@
       <c r="D109" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110" s="1" t="s">
         <v>211</v>
       </c>
@@ -2825,8 +3155,11 @@
       <c r="D110" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111" s="1" t="s">
         <v>221</v>
       </c>
@@ -2839,8 +3172,11 @@
       <c r="D111" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112" s="1" t="s">
         <v>223</v>
       </c>
@@ -2853,8 +3189,11 @@
       <c r="D112" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113" s="1" t="s">
         <v>225</v>
       </c>
@@ -2867,8 +3206,11 @@
       <c r="D113" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114" s="1" t="s">
         <v>227</v>
       </c>
@@ -2881,8 +3223,11 @@
       <c r="D114" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115" s="1" t="s">
         <v>229</v>
       </c>
@@ -2895,8 +3240,11 @@
       <c r="D115" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116" s="1" t="s">
         <v>239</v>
       </c>
@@ -2909,8 +3257,11 @@
       <c r="D116" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117" s="1" t="s">
         <v>241</v>
       </c>
@@ -2923,8 +3274,11 @@
       <c r="D117" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118" s="1" t="s">
         <v>243</v>
       </c>
@@ -2937,8 +3291,11 @@
       <c r="D118" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119" s="1" t="s">
         <v>245</v>
       </c>
@@ -2951,8 +3308,11 @@
       <c r="D119" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120" s="1" t="s">
         <v>231</v>
       </c>
@@ -2965,8 +3325,11 @@
       <c r="D120" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121" s="1" t="s">
         <v>233</v>
       </c>
@@ -2979,8 +3342,11 @@
       <c r="D121" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122" s="1" t="s">
         <v>235</v>
       </c>
@@ -2993,8 +3359,11 @@
       <c r="D122" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123" s="1" t="s">
         <v>237</v>
       </c>
@@ -3007,8 +3376,11 @@
       <c r="D123" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124" s="1" t="s">
         <v>247</v>
       </c>
@@ -3021,8 +3393,11 @@
       <c r="D124" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125" s="1" t="s">
         <v>249</v>
       </c>
@@ -3035,8 +3410,11 @@
       <c r="D125" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126" s="1" t="s">
         <v>251</v>
       </c>
@@ -3049,8 +3427,11 @@
       <c r="D126" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127" s="1" t="s">
         <v>253</v>
       </c>
@@ -3063,8 +3444,11 @@
       <c r="D127" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128" s="1" t="s">
         <v>255</v>
       </c>
@@ -3077,8 +3461,11 @@
       <c r="D128" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129" s="1" t="s">
         <v>265</v>
       </c>
@@ -3091,8 +3478,11 @@
       <c r="D129" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130" s="1" t="s">
         <v>267</v>
       </c>
@@ -3105,8 +3495,11 @@
       <c r="D130" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131" s="1" t="s">
         <v>269</v>
       </c>
@@ -3119,8 +3512,11 @@
       <c r="D131" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
       <c r="A132" s="1" t="s">
         <v>271</v>
       </c>
@@ -3133,8 +3529,11 @@
       <c r="D132" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
       <c r="A133" s="1" t="s">
         <v>257</v>
       </c>
@@ -3147,8 +3546,11 @@
       <c r="D133" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
       <c r="A134" s="1" t="s">
         <v>259</v>
       </c>
@@ -3161,8 +3563,11 @@
       <c r="D134" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
       <c r="A135" s="1" t="s">
         <v>261</v>
       </c>
@@ -3175,8 +3580,11 @@
       <c r="D135" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
         <v>263</v>
       </c>
@@ -3188,6 +3596,9 @@
       </c>
       <c r="D136" t="s">
         <v>6</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
